--- a/Mappings/HelpFromOthers - STU3.xlsx
+++ b/Mappings/HelpFromOthers - STU3.xlsx
@@ -1,200 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stijn-nadm\Documents\Mijn docs\git\nictiz-stu3-zib2017\Mappings\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="630" yWindow="630" windowWidth="27495" windowHeight="13995" activeTab="3"/>
+    <workbookView xWindow="630" yWindow="630" windowWidth="27498" windowHeight="13998"/>
   </bookViews>
   <sheets>
-    <sheet name="Voorblad" sheetId="1" r:id="rId1"/>
-    <sheet name="Metadata" sheetId="2" r:id="rId2"/>
-    <sheet name="Information Model" sheetId="3" r:id="rId3"/>
-    <sheet name="Data" sheetId="4" r:id="rId4"/>
-    <sheet name="SoortHulpCodelijst" sheetId="5" r:id="rId5"/>
-    <sheet name="Gebruiksvoorwaarden" sheetId="6" r:id="rId6"/>
+    <sheet name="HelpFromOthers" sheetId="4" r:id="rId1"/>
+    <sheet name="SoortHulpCodelijst" sheetId="5" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0" iterate="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="148">
-  <si>
-    <t>Onderwerp</t>
-  </si>
-  <si>
-    <t>Beschrijving</t>
-  </si>
-  <si>
-    <t>ZIB</t>
-  </si>
-  <si>
-    <t>nl.zorg.HulpVanAnderen</t>
-  </si>
-  <si>
-    <t>Versie</t>
-  </si>
-  <si>
-    <t>3.0</t>
-  </si>
-  <si>
-    <t>ZIB Status</t>
-  </si>
-  <si>
-    <t>Final</t>
-  </si>
-  <si>
-    <t>Publicatie</t>
-  </si>
-  <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>Publicatie status</t>
-  </si>
-  <si>
-    <t>Published</t>
-  </si>
-  <si>
-    <t>Publicatie datum</t>
-  </si>
-  <si>
-    <t>31-12-2017</t>
-  </si>
-  <si>
-    <t>XLS aangemaakt op</t>
-  </si>
-  <si>
-    <t>22-1-2018 10:33:37</t>
-  </si>
-  <si>
-    <t>Gebaseerd op</t>
-  </si>
-  <si>
-    <t>Release 2017</t>
-  </si>
-  <si>
-    <t>In beheer bij</t>
-  </si>
-  <si>
-    <t>Nictiz, Den Haag</t>
-  </si>
-  <si>
-    <t>Metadata</t>
-  </si>
-  <si>
-    <t>DCM::CoderList</t>
-  </si>
-  <si>
-    <t>Werkgroep RadB Verpleegkundige Gegevens</t>
-  </si>
-  <si>
-    <t>DCM::ContactInformation.Address</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>DCM::ContactInformation.Name</t>
-  </si>
-  <si>
-    <t>DCM::ContactInformation.Telecom</t>
-  </si>
-  <si>
-    <t>DCM::ContentAuthorList</t>
-  </si>
-  <si>
-    <t>DCM::CreationDate</t>
-  </si>
-  <si>
-    <t>7-7-2014</t>
-  </si>
-  <si>
-    <t>DCM::DeprecatedDate</t>
-  </si>
-  <si>
-    <t>DCM::DescriptionLanguage</t>
-  </si>
-  <si>
-    <t>nl</t>
-  </si>
-  <si>
-    <t>DCM::EndorsingAuthority.Address</t>
-  </si>
-  <si>
-    <t>DCM::EndorsingAuthority.Name</t>
-  </si>
-  <si>
-    <t>PM</t>
-  </si>
-  <si>
-    <t>DCM::EndorsingAuthority.Telecom</t>
-  </si>
-  <si>
-    <t>DCM::Id</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.4.3.11.60.40.3.3.2</t>
-  </si>
-  <si>
-    <t>DCM::KeywordList</t>
-  </si>
-  <si>
-    <t>Mantelzorg, hulp van anderen, thuiszorg, ADL</t>
-  </si>
-  <si>
-    <t>DCM::LifecycleStatus</t>
-  </si>
-  <si>
-    <t>DCM::ModelerList</t>
-  </si>
-  <si>
-    <t>DCM::Name</t>
-  </si>
-  <si>
-    <t>DCM::PublicationDate</t>
-  </si>
-  <si>
-    <t>DCM::PublicationStatus</t>
-  </si>
-  <si>
-    <t>DCM::ReviewerList</t>
-  </si>
-  <si>
-    <t>Projectgroep RadB Verpleegkundige Gegevens &amp; Kerngroep Registratie aan de Bron</t>
-  </si>
-  <si>
-    <t>DCM::RevisionDate</t>
-  </si>
-  <si>
-    <t>DCM::Superseeds</t>
-  </si>
-  <si>
-    <t>nl.nfu.HulpVanAnderen-v1.0</t>
-  </si>
-  <si>
-    <t>DCM::Version</t>
-  </si>
-  <si>
-    <t>HCIM::PublicationLanguage</t>
-  </si>
-  <si>
-    <t>NL</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="85">
   <si>
     <t>Concept</t>
-  </si>
-  <si>
-    <t>Bij de zorg voor een patiënt met een aandoening of beperking zijn, met name in de thuissituatie, vaak meerdere personen of instanties betrokken. Hun inzet maakt het voor de patiënt mogelijk in meer of mindere mate zelfstandig te functioneren. Het gaat hierbij niet alleen om mantelzorgers, maar ook om professionele hulp zoals geboden door thuiszorg instanties, verpleegkundigen, verzorgenden en helpenden.
-Behandelende artsen en personeel van de organisatie waarin een patiënt is opgenomen vallen niet onder dit concept.</t>
-  </si>
-  <si>
-    <t>Purpose</t>
-  </si>
-  <si>
-    <t>Met informatie over hulp van anderen is het mogelijk een goede inschatting te maken over de beschikbaarheid van de voor de patiënt noodzakelijke zorg. Indien deze zorg onvoldoende aanwezig is, kunnen  maatregelen genomen worden om dit te regelen.
-Met name bij ontslag uit ziekenhuis of verpleeghuis speelt dit een belangrijke rol.</t>
   </si>
   <si>
     <t>Alias</t>
@@ -415,24 +243,6 @@
   </si>
   <si>
     <t>Mantelzorg</t>
-  </si>
-  <si>
-    <t>Disclaimer</t>
-  </si>
-  <si>
-    <t>Deze Zorginformatiebouwsteen is in samenwerking gemaakt door diverse partijen en zij hebben deze in beheer gegeven bij Nictiz (al deze partijen samen hierna de samenwerkende partijen genoemd). De samenwerkende partijen hebben de grootst mogelijke zorg besteed aan de betrouwbaarheid en actualiteit van de gegevens in deze Zorginformatiebouwsteen. Onjuistheden en onvolledigheden kunnen echter voorkomen. De samenwerkende partijen zijn niet aansprakelijk voor schade als gevolg van onjuistheden of onvolledigheden in de  aangeboden informatie, noch voor schade die het gevolg is van problemen veroorzaakt door, of inherent aan het verspreiden van informatie via het internet, zoals storingen of onderbrekingen van of fouten of vertraging in het verstrekken van informatie of diensten door de samenwerkende partijen of door u aan de samenwerkende partijen via een website of via e-mail, of anderszins. Tevens aanvaarden de samenwerkende partijen geen aansprakelijkheid voor eventuele schade die geleden wordt als gevolg van het gebruik van gegevens, adviezen of ideeën verstrekt door of namens de samenwerkende partijen via deze Zorginformatiebouwsteen. De samenwerkende partijen aanvaarden geen verantwoordelijkheid voor de inhoud van informatie in deze Zorginformatiebouwsteen waarnaar of waarvan met een hyperlink of anderszins wordt verwezen. In geval van tegenstrijdigheden in de genoemde Zorginformatiebouwsteen documenten en bestanden geeft de meest recente en hoogste versie van de vermelde volgorde in de revisies de prioriteit van de desbetreffende documenten weer. Indien informatie die in de elektronische versie van deze Zorginformatiebouwsteen is opgenomen ook schriftelijk wordt verstrekt, zal in geval van tekstverschillen de schriftelijke versie bepalend zijn. Dit geldt indien de versieaanduiding en datering van beiden gelijk is. Een definitieve versie heeft echter prioriteit boven een conceptversie. Een gereviseerde versie heeft prioriteit boven een eerdere versie.</t>
-  </si>
-  <si>
-    <t>Terms of Use</t>
-  </si>
-  <si>
-    <t>De gebruiker mag de informatie van deze Zorginformatiebouwsteen zonder beperking gebruiken. Voor het kopiëren, verspreiden en doorgeven van de informatie van deze Zorginformatiebouwsteen gelden de copyrightbepalingen uit de betreffende paragraaf.</t>
-  </si>
-  <si>
-    <t>Copyrights</t>
-  </si>
-  <si>
-    <t>De gebruiker mag de informatie van deze Zorginformatiebouwsteen kopiëren, verspreiden en doorgeven, onder de voorwaarden, die gelden voor Creative Commons licentie Naamsvermelding-NietCommercieel-GelijkDelen 3.0 Nederland (CC BY-NC-SA-3.0).De inhoud is beschikbaar onder de Creative Commons Naamsvermelding-NietCommercieel-GelijkDelen 3.0 (zie ook http://creativecommons.org/licenses/by-nc-sa/3.0/nl/).</t>
   </si>
   <si>
     <t>Maps to</t>
@@ -471,7 +281,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -658,15 +468,15 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -674,122 +484,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2856900" cy="618995"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1025" name="Picture 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="2856900" cy="618995"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>5080000</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1428750" cy="504825"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1026" name="Picture 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="1428750" cy="504825"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="635000" y="635000"/>
-    <xdr:ext cx="9972675" cy="4476750"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1025" name="Picture 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="9972675" cy="4476750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:absoluteAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -831,7 +534,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -864,9 +567,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -899,6 +619,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1075,357 +812,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="100" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="B12" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="B13" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C11" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="C3:C8" numberStoredAsText="1"/>
-  </ignoredErrors>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="35" customWidth="1"/>
-    <col min="3" max="3" width="70" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="19"/>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="2"/>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B13" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B14" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B15" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B16" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B17" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B18" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B19" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B20" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B21" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B22" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B23" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B24" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B25" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:C2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="C3:C25" numberStoredAsText="1"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Q11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.9" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="0" hidden="1" customWidth="1"/>
     <col min="2" max="6" width="2" customWidth="1"/>
@@ -1437,12 +830,12 @@
     <col min="13" max="13" width="75" customWidth="1"/>
     <col min="14" max="14" width="20" customWidth="1"/>
     <col min="15" max="15" width="30" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="24.140625" customWidth="1"/>
+    <col min="16" max="16" width="46.76171875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.5">
       <c r="B2" s="6" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
@@ -1450,39 +843,39 @@
       <c r="F2" s="7"/>
       <c r="G2" s="8"/>
       <c r="H2" s="1" t="s">
-        <v>58</v>
+        <v>1</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>137</v>
+        <v>74</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="3" spans="2:17" ht="25.5" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="2:17" ht="38.700000000000003" x14ac:dyDescent="0.5">
       <c r="B3" s="9" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
@@ -1490,301 +883,301 @@
       <c r="F3" s="10"/>
       <c r="G3" s="11"/>
       <c r="H3" s="4" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="O3" s="4"/>
       <c r="P3" s="4" t="s">
-        <v>139</v>
+        <v>76</v>
       </c>
       <c r="Q3" s="4"/>
     </row>
-    <row r="4" spans="2:17" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:17" ht="64.5" x14ac:dyDescent="0.5">
       <c r="B4" s="12"/>
       <c r="C4" s="13" t="s">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="14"/>
       <c r="H4" s="5" t="s">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="5" t="s">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
       <c r="P4" s="5" t="s">
-        <v>140</v>
+        <v>77</v>
       </c>
       <c r="Q4" s="5"/>
     </row>
-    <row r="5" spans="2:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:17" ht="38.700000000000003" x14ac:dyDescent="0.5">
       <c r="B5" s="15"/>
       <c r="C5" s="16"/>
       <c r="D5" s="16" t="s">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="E5" s="16"/>
       <c r="F5" s="16"/>
       <c r="G5" s="17"/>
       <c r="H5" s="2" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2" t="s">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>81</v>
+        <v>24</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>83</v>
+        <v>26</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="P5" s="20" t="s">
-        <v>141</v>
+        <v>27</v>
+      </c>
+      <c r="P5" s="19" t="s">
+        <v>78</v>
       </c>
       <c r="Q5" s="2"/>
     </row>
-    <row r="6" spans="2:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:17" ht="38.700000000000003" x14ac:dyDescent="0.5">
       <c r="B6" s="15"/>
       <c r="C6" s="16"/>
       <c r="D6" s="16" t="s">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="E6" s="16"/>
       <c r="F6" s="16"/>
       <c r="G6" s="17"/>
       <c r="H6" s="2" t="s">
-        <v>86</v>
+        <v>29</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2" t="s">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>81</v>
+        <v>24</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>88</v>
+        <v>31</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="P6" s="20" t="s">
-        <v>142</v>
+        <v>32</v>
+      </c>
+      <c r="P6" s="19" t="s">
+        <v>79</v>
       </c>
       <c r="Q6" s="2"/>
     </row>
-    <row r="7" spans="2:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:17" ht="38.700000000000003" x14ac:dyDescent="0.5">
       <c r="B7" s="15"/>
       <c r="C7" s="16"/>
       <c r="D7" s="16" t="s">
-        <v>90</v>
+        <v>33</v>
       </c>
       <c r="E7" s="16"/>
       <c r="F7" s="16"/>
       <c r="G7" s="17"/>
       <c r="H7" s="2" t="s">
-        <v>91</v>
+        <v>34</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2" t="s">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>81</v>
+        <v>24</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>92</v>
+        <v>35</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="P7" s="20" t="s">
-        <v>143</v>
+        <v>37</v>
+      </c>
+      <c r="P7" s="19" t="s">
+        <v>80</v>
       </c>
       <c r="Q7" s="2"/>
     </row>
-    <row r="8" spans="2:17" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.5">
       <c r="B8" s="15"/>
       <c r="C8" s="16" t="s">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="D8" s="16"/>
       <c r="E8" s="16"/>
       <c r="F8" s="16"/>
       <c r="G8" s="17"/>
       <c r="H8" s="2" t="s">
-        <v>96</v>
+        <v>39</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>99</v>
+        <v>42</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
-      <c r="P8" s="20" t="s">
-        <v>144</v>
+      <c r="P8" s="19" t="s">
+        <v>81</v>
       </c>
       <c r="Q8" s="2"/>
     </row>
-    <row r="9" spans="2:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:17" ht="38.700000000000003" x14ac:dyDescent="0.5">
       <c r="B9" s="15"/>
       <c r="C9" s="16" t="s">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="D9" s="16"/>
       <c r="E9" s="16"/>
       <c r="F9" s="16"/>
       <c r="G9" s="17"/>
       <c r="H9" s="2" t="s">
-        <v>102</v>
+        <v>45</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>105</v>
+        <v>48</v>
       </c>
       <c r="O9" s="2"/>
-      <c r="P9" s="20" t="s">
-        <v>145</v>
+      <c r="P9" s="19" t="s">
+        <v>82</v>
       </c>
       <c r="Q9" s="2"/>
     </row>
-    <row r="10" spans="2:17" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.5">
       <c r="B10" s="15"/>
       <c r="C10" s="16" t="s">
-        <v>106</v>
+        <v>49</v>
       </c>
       <c r="D10" s="16"/>
       <c r="E10" s="16"/>
       <c r="F10" s="16"/>
       <c r="G10" s="17"/>
       <c r="H10" s="2" t="s">
-        <v>107</v>
+        <v>50</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>108</v>
+        <v>51</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>109</v>
+        <v>52</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>110</v>
+        <v>53</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="3" t="s">
-        <v>111</v>
+        <v>54</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>146</v>
+        <v>83</v>
       </c>
       <c r="Q10" s="2"/>
     </row>
-    <row r="11" spans="2:17" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:17" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B11" s="15"/>
       <c r="C11" s="16" t="s">
-        <v>112</v>
+        <v>55</v>
       </c>
       <c r="D11" s="16"/>
       <c r="E11" s="16"/>
       <c r="F11" s="16"/>
       <c r="G11" s="17"/>
       <c r="H11" s="2" t="s">
-        <v>113</v>
+        <v>56</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>114</v>
+        <v>57</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>115</v>
+        <v>58</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>116</v>
+        <v>59</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" s="2" t="s">
-        <v>147</v>
+        <v>84</v>
       </c>
       <c r="Q11" s="2"/>
     </row>
@@ -1802,13 +1195,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.9" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="3" max="3" width="24" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
@@ -1817,66 +1210,66 @@
     <col min="7" max="7" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C3" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-    </row>
-    <row r="4" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="3:7" x14ac:dyDescent="0.5">
+      <c r="C3" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+    </row>
+    <row r="4" spans="3:7" x14ac:dyDescent="0.5">
       <c r="C4" s="18" t="s">
-        <v>118</v>
+        <v>61</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>119</v>
+        <v>62</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>120</v>
+        <v>63</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>121</v>
+        <v>64</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="3:7" x14ac:dyDescent="0.5">
       <c r="C5" s="2" t="s">
-        <v>123</v>
+        <v>66</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>124</v>
+        <v>67</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>125</v>
+        <v>68</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>126</v>
+        <v>69</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="3:7" x14ac:dyDescent="0.5">
       <c r="C6" s="2" t="s">
-        <v>128</v>
+        <v>71</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>129</v>
+        <v>72</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>125</v>
+        <v>68</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>126</v>
+        <v>69</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>130</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1889,50 +1282,4 @@
     <ignoredError sqref="D5:D6" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="150" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" ht="153" x14ac:dyDescent="0.2">
-      <c r="B3" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B4" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B5" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B6" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B7" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Mappings/HelpFromOthers - STU3.xlsx
+++ b/Mappings/HelpFromOthers - STU3.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stijn-nadm\Documents\Mijn docs\git\nictiz-stu3-zib2017\Mappings\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\nicitz-stu3-zibs2017\Mappings\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="630" yWindow="630" windowWidth="27498" windowHeight="13998"/>
+    <workbookView xWindow="630" yWindow="630" windowWidth="27495" windowHeight="13995"/>
   </bookViews>
   <sheets>
     <sheet name="HelpFromOthers" sheetId="4" r:id="rId1"/>
@@ -275,7 +275,7 @@
     <t>CarePlan.activity.detail.category</t>
   </si>
   <si>
-    <t>CarePlan.activity.detail.description</t>
+    <t>CarePlan.note</t>
   </si>
 </sst>
 </file>
@@ -476,7 +476,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -492,7 +492,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -567,23 +567,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -619,23 +602,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -815,10 +781,10 @@
   <dimension ref="B2:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.9" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="0" hidden="1" customWidth="1"/>
     <col min="2" max="6" width="2" customWidth="1"/>
@@ -830,10 +796,10 @@
     <col min="13" max="13" width="75" customWidth="1"/>
     <col min="14" max="14" width="20" customWidth="1"/>
     <col min="15" max="15" width="30" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="46.76171875" customWidth="1"/>
+    <col min="16" max="16" width="46.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
@@ -873,7 +839,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="2:17" ht="38.700000000000003" x14ac:dyDescent="0.5">
+    <row r="3" spans="2:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B3" s="9" t="s">
         <v>9</v>
       </c>
@@ -905,7 +871,7 @@
       </c>
       <c r="Q3" s="4"/>
     </row>
-    <row r="4" spans="2:17" ht="64.5" x14ac:dyDescent="0.5">
+    <row r="4" spans="2:17" ht="63.75" x14ac:dyDescent="0.2">
       <c r="B4" s="12"/>
       <c r="C4" s="13" t="s">
         <v>15</v>
@@ -937,7 +903,7 @@
       </c>
       <c r="Q4" s="5"/>
     </row>
-    <row r="5" spans="2:17" ht="38.700000000000003" x14ac:dyDescent="0.5">
+    <row r="5" spans="2:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B5" s="15"/>
       <c r="C5" s="16"/>
       <c r="D5" s="16" t="s">
@@ -971,7 +937,7 @@
       </c>
       <c r="Q5" s="2"/>
     </row>
-    <row r="6" spans="2:17" ht="38.700000000000003" x14ac:dyDescent="0.5">
+    <row r="6" spans="2:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B6" s="15"/>
       <c r="C6" s="16"/>
       <c r="D6" s="16" t="s">
@@ -1005,7 +971,7 @@
       </c>
       <c r="Q6" s="2"/>
     </row>
-    <row r="7" spans="2:17" ht="38.700000000000003" x14ac:dyDescent="0.5">
+    <row r="7" spans="2:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B7" s="15"/>
       <c r="C7" s="16"/>
       <c r="D7" s="16" t="s">
@@ -1039,7 +1005,7 @@
       </c>
       <c r="Q7" s="2"/>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B8" s="15"/>
       <c r="C8" s="16" t="s">
         <v>38</v>
@@ -1073,7 +1039,7 @@
       </c>
       <c r="Q8" s="2"/>
     </row>
-    <row r="9" spans="2:17" ht="38.700000000000003" x14ac:dyDescent="0.5">
+    <row r="9" spans="2:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B9" s="15"/>
       <c r="C9" s="16" t="s">
         <v>44</v>
@@ -1109,7 +1075,7 @@
       </c>
       <c r="Q9" s="2"/>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B10" s="15"/>
       <c r="C10" s="16" t="s">
         <v>49</v>
@@ -1145,7 +1111,7 @@
       </c>
       <c r="Q10" s="2"/>
     </row>
-    <row r="11" spans="2:17" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="11" spans="2:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B11" s="15"/>
       <c r="C11" s="16" t="s">
         <v>55</v>
@@ -1176,7 +1142,7 @@
         <v>59</v>
       </c>
       <c r="O11" s="2"/>
-      <c r="P11" s="2" t="s">
+      <c r="P11" s="19" t="s">
         <v>84</v>
       </c>
       <c r="Q11" s="2"/>
@@ -1201,7 +1167,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.9" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="24" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
@@ -1210,7 +1176,7 @@
     <col min="7" max="7" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:7" x14ac:dyDescent="0.5">
+    <row r="3" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C3" s="20" t="s">
         <v>54</v>
       </c>
@@ -1221,7 +1187,7 @@
       <c r="F3" s="20"/>
       <c r="G3" s="20"/>
     </row>
-    <row r="4" spans="3:7" x14ac:dyDescent="0.5">
+    <row r="4" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C4" s="18" t="s">
         <v>61</v>
       </c>
@@ -1238,7 +1204,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.5">
+    <row r="5" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C5" s="2" t="s">
         <v>66</v>
       </c>
@@ -1255,7 +1221,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.5">
+    <row r="6" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C6" s="2" t="s">
         <v>71</v>
       </c>

--- a/Mappings/HelpFromOthers - STU3.xlsx
+++ b/Mappings/HelpFromOthers - STU3.xlsx
@@ -275,7 +275,7 @@
     <t>CarePlan.activity.detail.category</t>
   </si>
   <si>
-    <t>CarePlan.note</t>
+    <t>CarePlan.activity.detail.description</t>
   </si>
 </sst>
 </file>
@@ -781,7 +781,7 @@
   <dimension ref="B2:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
